--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H2">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I2">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J2">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>58.434756626801</v>
+        <v>1.106217</v>
       </c>
       <c r="N2">
-        <v>58.434756626801</v>
+        <v>3.318651</v>
       </c>
       <c r="O2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q2">
-        <v>63.91723476545962</v>
+        <v>1.261974934773</v>
       </c>
       <c r="R2">
-        <v>63.91723476545962</v>
+        <v>11.357774412957</v>
       </c>
       <c r="S2">
-        <v>0.49432281389216</v>
+        <v>0.008479883782660189</v>
       </c>
       <c r="T2">
-        <v>0.49432281389216</v>
+        <v>0.008479883782660189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09382221224387</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H3">
-        <v>1.09382221224387</v>
+        <v>3.422407</v>
       </c>
       <c r="I3">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J3">
-        <v>0.4981966564796635</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.457933646697285</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N3">
-        <v>0.457933646697285</v>
+        <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q3">
-        <v>0.5008979944913271</v>
+        <v>67.58662280963421</v>
       </c>
       <c r="R3">
-        <v>0.5008979944913271</v>
+        <v>608.2796052867079</v>
       </c>
       <c r="S3">
-        <v>0.003873842587503433</v>
+        <v>0.4541506260512858</v>
       </c>
       <c r="T3">
-        <v>0.003873842587503433</v>
+        <v>0.4541506260512858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.935991804886247</v>
+        <v>1.140802333333333</v>
       </c>
       <c r="H4">
-        <v>0.935991804886247</v>
+        <v>3.422407</v>
       </c>
       <c r="I4">
-        <v>0.4263105854562125</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="J4">
-        <v>0.4263105854562125</v>
+        <v>0.4676913838998554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.434756626801</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N4">
-        <v>58.434756626801</v>
+        <v>1.980602</v>
       </c>
       <c r="O4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q4">
-        <v>54.69445332320804</v>
+        <v>0.7531584610015555</v>
       </c>
       <c r="R4">
-        <v>54.69445332320804</v>
+        <v>6.778426149014</v>
       </c>
       <c r="S4">
-        <v>0.4229957095332922</v>
+        <v>0.005060874065909412</v>
       </c>
       <c r="T4">
-        <v>0.4229957095332922</v>
+        <v>0.005060874065909412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.935991804886247</v>
+        <v>1.020259</v>
       </c>
       <c r="H5">
-        <v>0.935991804886247</v>
+        <v>3.060777</v>
       </c>
       <c r="I5">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J5">
-        <v>0.4263105854562125</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.457933646697285</v>
+        <v>1.106217</v>
       </c>
       <c r="N5">
-        <v>0.457933646697285</v>
+        <v>3.318651</v>
       </c>
       <c r="O5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q5">
-        <v>0.4286221404903328</v>
+        <v>1.128627850203</v>
       </c>
       <c r="R5">
-        <v>0.4286221404903328</v>
+        <v>10.157650651827</v>
       </c>
       <c r="S5">
-        <v>0.003314875922920231</v>
+        <v>0.007583853482253661</v>
       </c>
       <c r="T5">
-        <v>0.003314875922920231</v>
+        <v>0.007583853482253661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.165749116458517</v>
+        <v>1.020259</v>
       </c>
       <c r="H6">
-        <v>0.165749116458517</v>
+        <v>3.060777</v>
       </c>
       <c r="I6">
-        <v>0.07549275806412414</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="J6">
-        <v>0.07549275806412414</v>
+        <v>0.4182725873745722</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.434756626801</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N6">
-        <v>58.434756626801</v>
+        <v>177.734444</v>
       </c>
       <c r="O6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q6">
-        <v>9.685509281360737</v>
+        <v>60.44505536699867</v>
       </c>
       <c r="R6">
-        <v>9.685509281360737</v>
+        <v>544.0054983029879</v>
       </c>
       <c r="S6">
-        <v>0.07490574677564345</v>
+        <v>0.4061626191021045</v>
       </c>
       <c r="T6">
-        <v>0.07490574677564345</v>
+        <v>0.4061626191021045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.020259</v>
+      </c>
+      <c r="H7">
+        <v>3.060777</v>
+      </c>
+      <c r="I7">
+        <v>0.4182725873745722</v>
+      </c>
+      <c r="J7">
+        <v>0.4182725873745722</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.980602</v>
+      </c>
+      <c r="O7">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P7">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q7">
+        <v>0.6735756719726667</v>
+      </c>
+      <c r="R7">
+        <v>6.062181047754</v>
+      </c>
+      <c r="S7">
+        <v>0.004526114790214026</v>
+      </c>
+      <c r="T7">
+        <v>0.004526114790214026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.207213</v>
+      </c>
+      <c r="I8">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J8">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.106217</v>
+      </c>
+      <c r="N8">
+        <v>3.318651</v>
+      </c>
+      <c r="O8">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P8">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q8">
+        <v>0.07640751440700001</v>
+      </c>
+      <c r="R8">
+        <v>0.687667629663</v>
+      </c>
+      <c r="S8">
+        <v>0.0005134229091561483</v>
+      </c>
+      <c r="T8">
+        <v>0.0005134229091561483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.207213</v>
+      </c>
+      <c r="I9">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J9">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N9">
+        <v>177.734444</v>
+      </c>
+      <c r="O9">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P9">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q9">
+        <v>4.092098593841333</v>
+      </c>
+      <c r="R9">
+        <v>36.828887344572</v>
+      </c>
+      <c r="S9">
+        <v>0.02749699660968584</v>
+      </c>
+      <c r="T9">
+        <v>0.02749699660968584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06907100000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.207213</v>
+      </c>
+      <c r="I10">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="J10">
+        <v>0.02831683511985592</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.980602</v>
+      </c>
+      <c r="O10">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P10">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q10">
+        <v>0.04560072024733334</v>
+      </c>
+      <c r="R10">
+        <v>0.410406482226</v>
+      </c>
+      <c r="S10">
+        <v>0.0003064156010139318</v>
+      </c>
+      <c r="T10">
+        <v>0.0003064156010139318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.165749116458517</v>
-      </c>
-      <c r="H7">
-        <v>0.165749116458517</v>
-      </c>
-      <c r="I7">
-        <v>0.07549275806412414</v>
-      </c>
-      <c r="J7">
-        <v>0.07549275806412414</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.457933646697285</v>
-      </c>
-      <c r="N7">
-        <v>0.457933646697285</v>
-      </c>
-      <c r="O7">
-        <v>0.00777572979890435</v>
-      </c>
-      <c r="P7">
-        <v>0.00777572979890435</v>
-      </c>
-      <c r="Q7">
-        <v>0.07590209733670167</v>
-      </c>
-      <c r="R7">
-        <v>0.07590209733670167</v>
-      </c>
-      <c r="S7">
-        <v>0.0005870112884806867</v>
-      </c>
-      <c r="T7">
-        <v>0.0005870112884806867</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.209088</v>
+      </c>
+      <c r="H11">
+        <v>0.627264</v>
+      </c>
+      <c r="I11">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J11">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.106217</v>
+      </c>
+      <c r="N11">
+        <v>3.318651</v>
+      </c>
+      <c r="O11">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P11">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q11">
+        <v>0.231296700096</v>
+      </c>
+      <c r="R11">
+        <v>2.081670300864</v>
+      </c>
+      <c r="S11">
+        <v>0.00155420609560656</v>
+      </c>
+      <c r="T11">
+        <v>0.00155420609560656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.209088</v>
+      </c>
+      <c r="H12">
+        <v>0.627264</v>
+      </c>
+      <c r="I12">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J12">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N12">
+        <v>177.734444</v>
+      </c>
+      <c r="O12">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P12">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q12">
+        <v>12.387379809024</v>
+      </c>
+      <c r="R12">
+        <v>111.486418281216</v>
+      </c>
+      <c r="S12">
+        <v>0.08323742275522279</v>
+      </c>
+      <c r="T12">
+        <v>0.08323742275522279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.209088</v>
+      </c>
+      <c r="H13">
+        <v>0.627264</v>
+      </c>
+      <c r="I13">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="J13">
+        <v>0.08571919360571637</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.980602</v>
+      </c>
+      <c r="O13">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P13">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q13">
+        <v>0.138040036992</v>
+      </c>
+      <c r="R13">
+        <v>1.242360332928</v>
+      </c>
+      <c r="S13">
+        <v>0.0009275647548870144</v>
+      </c>
+      <c r="T13">
+        <v>0.0009275647548870144</v>
       </c>
     </row>
   </sheetData>
